--- a/biology/Médecine/Tinsley_Harrison/Tinsley_Harrison.xlsx
+++ b/biology/Médecine/Tinsley_Harrison/Tinsley_Harrison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tinsley Randolph Harrison, né le 18 mars 1900 à Talladega, en Alabama et mort le 4 août 1978 à Birmingham, en Alabama, est  un médecin américain éditeur et éponyme des 5 premières éditions du célèbre traité de médecine interne  Harrison's Principles of Internal Medicine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Groce Harrison, appartenant lui-même à la sixième génération d'une famille de médecins. Ayant terminé ses études secondaires à l'âge de 15 ans, Harrison s'inscrit à l'université du Michigan, où il effectue sa première année de médecine. Il poursuit sa formation à l'école de médecine de l'université Johns-Hopkins à l'automne 1919. Son colocataire et partenaire de tennis à Johns Hopkins est Alfred Blalock, avec qui il entretient une amitié étroite durant toute sa vie. Il effectue son internat au Peter Bent Brigham Hospital de Boston, revient à Johns Hopkins pour y compléter sa formation en médecine interne, puis est engagé comme résident à l'université Vanderbilt.
 Ses domaines de prédilection sont la cardiologie et la physiopathologie des maladies. Son nom est surtout connu dans le milieu médical comme celui du créateur et rédacteur principal des cinq premières éditions des Principes de Médecine interne (Harrison's Principles of Internal Medicine). Ce texte se développe selon plusieurs approches nouvelles de la rédaction d'ouvrages médicaux et reste, dans sa version actuelle, l'un des manuels les plus lus et les plus respectés de la médecine.
